--- a/biology/Médecine/Syndrome_de_Löffler/Syndrome_de_Löffler.xlsx
+++ b/biology/Médecine/Syndrome_de_Löffler/Syndrome_de_Löffler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_L%C3%B6ffler</t>
+          <t>Syndrome_de_Löffler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Löffler ou syndrome de Loeffler, est caractérisé par la présence d’infiltrats pulmonaires para-hilaires ou sous-claviculaires, labiles, liés le plus souvent aux phénomènes mécaniques et allergiques secondaires à la présence de larves de parasites dans les alvéoles pulmonaires. Ces images radiologiques sont associées à une hyperéosinophilie sanguine.
-Il fut décrit la première fois en 1932 par Wilhelm Löffler (en)[1],[2],[3] dans les pneumonies éosinophiles causées par les nématodes Ascaris lumbricoides, Strongyloides stercoralis, Ancylostoma duodenale et Necator americanus.
+Il fut décrit la première fois en 1932 par Wilhelm Löffler (en) dans les pneumonies éosinophiles causées par les nématodes Ascaris lumbricoides, Strongyloides stercoralis, Ancylostoma duodenale et Necator americanus.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_L%C3%B6ffler</t>
+          <t>Syndrome_de_Löffler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,26 +524,135 @@
           <t>Tableau clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le syndröme de Löfller est considéré comme bénin, n'induisant aucune mortalité, et les symptômes disparaissent en 3-4 semaines[4].
-Les symptômes du syndrome de Löffler sont typiquement peu bruyants et ne vont s'exprimer que lors de la phase d'invasion parasitaire[5] ou bien quelques heures à quelques jours après l'introduction d'un médicament inducteur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndröme de Löfller est considéré comme bénin, n'induisant aucune mortalité, et les symptômes disparaissent en 3-4 semaines.
+Les symptômes du syndrome de Löffler sont typiquement peu bruyants et ne vont s'exprimer que lors de la phase d'invasion parasitaire ou bien quelques heures à quelques jours après l'introduction d'un médicament inducteur.
 Les différents symptômes varient selon l'étiologie:
-Étiologie parasitaire
-Bien que parfois asymptomatique, on retrouve typiquement[6]:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Löffler</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tableau clinique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étiologie parasitaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bien que parfois asymptomatique, on retrouve typiquement:
 Asthénie
 Fièvre modérée
 Toux sèche
 Dyspnée sibilante
 Troubles digestifs
-Arthralgie et myalgies
-Étiologie médicamenteuse
-On retrouve communément[6]:
+Arthralgie et myalgies</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Löffler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tableau clinique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étiologie médicamenteuse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On retrouve communément:
 Toux sèche
 Essoufflement
-Fièvre
-Médicaments généralement en cause
-On peut retrouver:
+Fièvre</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Löffler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tableau clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étiologie médicamenteuse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Médicaments généralement en cause</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On peut retrouver:
 Des agents anti-microbiens: l'éthambutol, la clarythromycine, etc.
 Des anti-convulsivants: la carbamazépine, phénytoïne
 Des anti-inflammatoires et des immunomodulateurs: l'aspirine, l'azathioprine, etc.
@@ -539,101 +660,177 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Syndrome_de_L%C3%B6ffler</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Löffler</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mécanismes immunopathogénique exactes de cette hyperéosinophilie pulmonaire restent inconnus.
 Les chercheurs pensent pour le moment que cela est dû à une réponse trop importante du système immunitaire de l'hôte face aux parasites cités plus haut.
-Les études sur les animaux nous permettent de penser que cette réponse immunitaire est dépendante des lymphocytes T, ainsi que de l'interleukine IL-5[7].
+Les études sur les animaux nous permettent de penser que cette réponse immunitaire est dépendante des lymphocytes T, ainsi que de l'interleukine IL-5.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Syndrome_de_L%C3%B6ffler</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Löffler</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Epidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épidémiologie du syndröme de Loffler induit par une parasitose suit celle des parasites (Ascaris lumbricoides, Strongyloides stercoralis, Ancylostoma duodenale,Necator americanus, etc).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Syndrome_de_L%C3%B6ffler</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Löffler</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement varie selon l'étiologie.
-Étiologie parasitaire
-Le traitement est celui du parasite en cause.
-Étiologie médicamenteuse
-Le traitement consiste en l'arrêt du médicament causal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Löffler</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Étiologie parasitaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement est celui du parasite en cause.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Löffler</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_L%C3%B6ffler</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Étiologie médicamenteuse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement consiste en l'arrêt du médicament causal.
 </t>
         </is>
       </c>
